--- a/data_info.xlsx
+++ b/data_info.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\Pill_recognition\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{273994E7-3B0D-4B56-9028-17EB67DFFD70}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0FE35C6-0FC1-47DB-A699-C017448A3275}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1005" yWindow="2280" windowWidth="24360" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1770" yWindow="1395" windowWidth="24360" windowHeight="11835" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,186 +27,166 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
   <si>
-    <t>醫你痛錠(T-R-YE)
+    <t>代號</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>種類</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>錠劑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>圓形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>粉紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>長條形</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膚色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>白色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黃色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>桃紅色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>膠囊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>雙色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紋理</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏色1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>顏色2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橘色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淺橘色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深橘色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>淺綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>深綠</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>T_S_WH</t>
+  </si>
+  <si>
+    <t>C_WH_OR</t>
+  </si>
+  <si>
+    <t>T_S_SK</t>
+  </si>
+  <si>
+    <t>C_WH_PK</t>
+  </si>
+  <si>
+    <t>T_S_PK</t>
+  </si>
+  <si>
+    <t>C_LOR_DOR</t>
+  </si>
+  <si>
+    <t>T_R_WH</t>
+  </si>
+  <si>
+    <t>C_LGR_DGR</t>
+  </si>
+  <si>
+    <t>T_R_YE</t>
+  </si>
+  <si>
+    <t>T_R_MA</t>
+  </si>
+  <si>
+    <t>司多安止咳膜衣錠(T_S_PK)
+STONA COUGH F.C TABLETS
+粉紅色 長條</t>
+  </si>
+  <si>
+    <t>『外面買的』藥(以白色圓形為主)
+T_R_WH</t>
+  </si>
+  <si>
+    <t>消炎止痛膜衣錠(T_S_SK)
+膚色 長條</t>
+  </si>
+  <si>
+    <t>醫你痛錠(T_R_YE)
 INITON TABLETS
 黃色 圓形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>治痛炎膜衣錠(T-R-MA)
+  </si>
+  <si>
+    <t>靜咳膠囊(C_WH_OR)
+TINCO CAP
+白色 + 橘色</t>
+  </si>
+  <si>
+    <t>司多安鼻炎膜衣錠(T_S_WH)
+STONA SINUS F.C. TABLETS
+白色 長條</t>
+  </si>
+  <si>
+    <t>治痛炎膜衣錠(T_R_MA)
 Perofen 400 F.C. Tablets
 桃紅色 圓形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>消炎止痛膜衣錠(T-S-SK)
-膚色 長條</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>維生素感冒膠囊(C-LOR-DOR)
+  </si>
+  <si>
+    <t>維生素感冒膠囊(C_LOR_DOR)
 VIT.ANTI COLD CAP
 淺橘色+深橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛疼膠囊(C-WH-PK)
+  </si>
+  <si>
+    <t>洛疼膠囊(C_WH_PK)
 LOTTON CAP
 白色+粉紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>伊克定膠囊(C-LGR-DGR)
+  </si>
+  <si>
+    <t>伊克定膠囊(C_LGR_DGR)
 IKONDIN CAP
 淺綠色+深綠色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>靜咳膠囊(C-WH-OR)
-TINCO CAP
-白色 + 橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司多安鼻炎膜衣錠(T-S-WH)
-STONA SINUS F.C. TABLETS
-白色 長條</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司多安止咳膜衣錠(T-S-PK)
-STONA COUGH F.C TABLETS
-粉紅色 長條</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>『外面買的』藥(以白色圓形為主)
-T-R-WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>代號</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>種類</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>錠劑</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>圓形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>粉紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-S-PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-S-SK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>長條形</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膚色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>白色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-S-WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>黃色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>桃紅色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-R-WH</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-R-YE</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>T-R-MA</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>膠囊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>雙色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紋理</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏色1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>顏色2</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淺橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深橘色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>淺綠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>深綠</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-WH-OR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-LOR-DOR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-WH-PK</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>C-LGR-DGR</t>
-    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -397,46 +377,46 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -719,8 +699,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:L20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D4"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -730,135 +710,135 @@
   <sheetData>
     <row r="1" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="2" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>18</v>
+      <c r="C2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>6</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K2" t="s">
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C3" s="16"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H3" s="16"/>
+      <c r="I3" s="16"/>
+      <c r="J3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" t="s">
+        <v>5</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C4" s="16"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" s="16"/>
+      <c r="I4" s="16"/>
+      <c r="J4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" t="s">
+        <v>18</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
+      <c r="C5" s="16"/>
+      <c r="D5" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="H5" s="16"/>
+      <c r="I5" s="16"/>
+      <c r="J5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" t="s">
-        <v>32</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="3" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C3" s="4"/>
-      <c r="D3" s="3"/>
-      <c r="E3" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" t="s">
-        <v>15</v>
-      </c>
-      <c r="L3" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="4" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C4" s="4"/>
-      <c r="D4" s="3"/>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="H4" s="4"/>
-      <c r="I4" s="4"/>
-      <c r="J4" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="K4" t="s">
-        <v>34</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="5" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C5" s="4"/>
-      <c r="D5" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="4"/>
-      <c r="I5" s="4"/>
-      <c r="J5" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="K5" t="s">
-        <v>36</v>
-      </c>
-      <c r="L5" s="1" t="s">
-        <v>40</v>
-      </c>
     </row>
     <row r="6" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C6" s="4"/>
-      <c r="D6" s="4"/>
+      <c r="C6" s="16"/>
+      <c r="D6" s="16"/>
       <c r="E6" s="1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -866,13 +846,13 @@
       <c r="L6" s="1"/>
     </row>
     <row r="7" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C7" s="4"/>
-      <c r="D7" s="4"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="1" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="F7" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -881,171 +861,176 @@
     </row>
     <row r="8" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="9" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C9" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="11"/>
-      <c r="E9" s="10" t="s">
-        <v>9</v>
-      </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="12"/>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9"/>
+      <c r="E9" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="10"/>
     </row>
     <row r="10" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C10" s="14"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="6"/>
-      <c r="K10" s="6"/>
-      <c r="L10" s="8"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="6"/>
     </row>
     <row r="11" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C11" s="14"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="6"/>
-      <c r="K11" s="6"/>
-      <c r="L11" s="8"/>
+      <c r="C11" s="12"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+      <c r="I11" s="4"/>
+      <c r="J11" s="4"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="6"/>
     </row>
     <row r="12" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C12" s="14"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="6"/>
-      <c r="K12" s="6"/>
-      <c r="L12" s="8"/>
+      <c r="C12" s="12"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="4"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="6"/>
     </row>
     <row r="13" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C13" s="15" t="s">
-        <v>2</v>
-      </c>
-      <c r="D13" s="6"/>
-      <c r="E13" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6"/>
-      <c r="G13" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="6"/>
-      <c r="K13" s="6"/>
-      <c r="L13" s="8"/>
+      <c r="C13" s="13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13" s="4"/>
+      <c r="E13" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="F13" s="4"/>
+      <c r="G13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="4"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="6"/>
     </row>
     <row r="14" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C14" s="14"/>
-      <c r="D14" s="6"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="6"/>
-      <c r="K14" s="6"/>
-      <c r="L14" s="8"/>
+      <c r="C14" s="12"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+      <c r="I14" s="4"/>
+      <c r="J14" s="4"/>
+      <c r="K14" s="4"/>
+      <c r="L14" s="6"/>
     </row>
     <row r="15" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C15" s="14"/>
-      <c r="D15" s="6"/>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="6"/>
-      <c r="K15" s="6"/>
-      <c r="L15" s="8"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+      <c r="I15" s="4"/>
+      <c r="J15" s="4"/>
+      <c r="K15" s="4"/>
+      <c r="L15" s="6"/>
     </row>
     <row r="16" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C16" s="14"/>
-      <c r="D16" s="6"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="6"/>
-      <c r="K16" s="6"/>
-      <c r="L16" s="8"/>
+      <c r="C16" s="12"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+      <c r="I16" s="4"/>
+      <c r="J16" s="4"/>
+      <c r="K16" s="4"/>
+      <c r="L16" s="6"/>
     </row>
     <row r="17" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C17" s="15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" s="6"/>
-      <c r="E17" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="F17" s="6"/>
-      <c r="G17" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="H17" s="6"/>
-      <c r="I17" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="J17" s="6"/>
-      <c r="K17" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="L17" s="8"/>
+      <c r="C17" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="D17" s="4"/>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4"/>
+      <c r="G17" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J17" s="4"/>
+      <c r="K17" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="L17" s="6"/>
     </row>
     <row r="18" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C18" s="14"/>
-      <c r="D18" s="6"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="6"/>
-      <c r="K18" s="6"/>
-      <c r="L18" s="8"/>
+      <c r="C18" s="12"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+      <c r="I18" s="4"/>
+      <c r="J18" s="4"/>
+      <c r="K18" s="4"/>
+      <c r="L18" s="6"/>
     </row>
     <row r="19" spans="3:12" x14ac:dyDescent="0.25">
-      <c r="C19" s="14"/>
-      <c r="D19" s="6"/>
-      <c r="E19" s="6"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="6"/>
-      <c r="K19" s="6"/>
-      <c r="L19" s="8"/>
+      <c r="C19" s="12"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+      <c r="I19" s="4"/>
+      <c r="J19" s="4"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="6"/>
     </row>
     <row r="20" spans="3:12" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="16"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="7"/>
-      <c r="I20" s="7"/>
-      <c r="J20" s="7"/>
-      <c r="K20" s="7"/>
-      <c r="L20" s="9"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+      <c r="F20" s="5"/>
+      <c r="G20" s="5"/>
+      <c r="H20" s="5"/>
+      <c r="I20" s="5"/>
+      <c r="J20" s="5"/>
+      <c r="K20" s="5"/>
+      <c r="L20" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="C2:C7"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="D5:D7"/>
+    <mergeCell ref="H2:H5"/>
+    <mergeCell ref="I2:I5"/>
     <mergeCell ref="I17:J20"/>
     <mergeCell ref="K17:L20"/>
     <mergeCell ref="G13:L16"/>
@@ -1056,11 +1041,6 @@
     <mergeCell ref="E13:F16"/>
     <mergeCell ref="E17:F20"/>
     <mergeCell ref="G17:H20"/>
-    <mergeCell ref="C2:C7"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="D5:D7"/>
-    <mergeCell ref="H2:H5"/>
-    <mergeCell ref="I2:I5"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
